--- a/Donation(301-400).xlsx
+++ b/Donation(301-400).xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghousia Masjid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Masjid-record-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$87</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="119">
   <si>
     <t>S.NO</t>
   </si>
@@ -386,12 +386,18 @@
   </si>
   <si>
     <t>20-02-2020</t>
+  </si>
+  <si>
+    <t>Tameer Funds</t>
+  </si>
+  <si>
+    <t>12-08-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +500,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,41 +843,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O86"/>
+  <dimension ref="B3:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B18" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="C4" s="6" t="s">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -905,7 +917,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -925,7 +937,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -945,7 +957,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -965,7 +977,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -985,7 +997,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>11</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>12</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>13</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>14</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>15</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>16</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>17</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>18</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>19</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>20</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>57570</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>21</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>22</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>23</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>24</v>
       </c>
@@ -1369,7 +1381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>25</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>26</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>27</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>28</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>29</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>30</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>31</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>32</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>33</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>34</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>35</v>
       </c>
@@ -1589,7 +1601,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>36</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>37</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>38</v>
       </c>
@@ -1645,7 +1657,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>39</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>40</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>41</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>42</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>43</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>44</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>45</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>46</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>47</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>48</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>49</v>
       </c>
@@ -1883,7 +1895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>50</v>
       </c>
@@ -1906,7 +1918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>51</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>52</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>53</v>
       </c>
@@ -1975,7 +1987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>54</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>55</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>56</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>57</v>
       </c>
@@ -2067,7 +2079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>58</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>59</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>60</v>
       </c>
@@ -2127,7 +2139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>61</v>
       </c>
@@ -2147,7 +2159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>62</v>
       </c>
@@ -2167,7 +2179,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>63</v>
       </c>
@@ -2185,7 +2197,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>64</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>65</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>66</v>
       </c>
@@ -2245,7 +2257,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>67</v>
       </c>
@@ -2265,7 +2277,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>68</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>69</v>
       </c>
@@ -2305,7 +2317,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>70</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>71</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>72</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>73</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>74</v>
       </c>
@@ -2409,7 +2421,7 @@
         <v>88500</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>75</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>76</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>77</v>
       </c>
@@ -2469,7 +2481,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>78</v>
       </c>
@@ -2489,26 +2501,46 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="4" t="s">
+    <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B86" s="1">
+        <v>79</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="5">
+        <v>379</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1482810</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="1">
-        <f>SUM(G8:G85)</f>
-        <v>423770</v>
+      <c r="F87" s="7"/>
+      <c r="G87" s="1">
+        <f>SUM(G8:G86)</f>
+        <v>1906580</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
